--- a/zone_merge_sample.xlsx
+++ b/zone_merge_sample.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc404225\Documents\Broadcom\Scripting\FOS_Automation\applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Consoli\Documents\cs\scripts\brocade-rest-api-applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFAFE4A-984A-4904-A8A9-4A01F85C17BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16570" windowHeight="7050"/>
+    <workbookView xWindow="1152" yWindow="804" windowWidth="20028" windowHeight="11532" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -20,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -124,13 +122,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>xx.xxx.x.204</t>
+    <t>xx.xxx.x.15</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>xx.xxx.x.26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1211,94 +1215,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="21" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+    <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24" t="s">
+    <row r="29" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1308,123 +1312,123 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="22.6328125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="22.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6328125" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>1</v>
       </c>
       <c r="E3" s="19">
         <v>128</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>1</v>
       </c>
       <c r="E4" s="19">
         <v>30</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
